--- a/工作簿1.xlsx
+++ b/工作簿1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20750" windowHeight="10480"/>
+    <workbookView windowWidth="9950" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="90">
   <si>
     <t>成就系统</t>
   </si>
@@ -44,7 +44,10 @@
     <t>万物的开端</t>
   </si>
   <si>
-    <t>车前草总数=1</t>
+    <t>车前草这里是总数不是点击总数总数=1</t>
+  </si>
+  <si>
+    <t>车前草点击+1</t>
   </si>
   <si>
     <t>勤劳的小蜜蜂</t>
@@ -53,18 +56,27 @@
     <t>车前草总数=10</t>
   </si>
   <si>
+    <t>车前草点击+2</t>
+  </si>
+  <si>
     <t>卷起来了</t>
   </si>
   <si>
     <t>车前草总数=100</t>
   </si>
   <si>
+    <t>车前草点击+5</t>
+  </si>
+  <si>
     <t>OMG</t>
   </si>
   <si>
     <t>车前草总数=1000</t>
   </si>
   <si>
+    <t>车前草自动*5%</t>
+  </si>
+  <si>
     <t>富可敌国</t>
   </si>
   <si>
@@ -83,6 +95,9 @@
     <t>解锁车前草自动采摘</t>
   </si>
   <si>
+    <t>车前草点击+10</t>
+  </si>
+  <si>
     <t>果子！</t>
   </si>
   <si>
@@ -107,6 +122,9 @@
     <t>果子总数=1000</t>
   </si>
   <si>
+    <t>果子自动*5%</t>
+  </si>
+  <si>
     <t>富可敌国II</t>
   </si>
   <si>
@@ -125,6 +143,9 @@
     <t>伙伴=0</t>
   </si>
   <si>
+    <t>车前草自动*10%</t>
+  </si>
+  <si>
     <t>勾肩搭背</t>
   </si>
   <si>
@@ -267,6 +288,15 @@
   </si>
   <si>
     <t>自动果子=1000</t>
+  </si>
+  <si>
+    <t>果子自动*10%</t>
+  </si>
+  <si>
+    <t>时长？</t>
+  </si>
+  <si>
+    <t>资源消耗类成就</t>
   </si>
 </sst>
 </file>
@@ -882,8 +912,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1418,10 +1451,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -1446,308 +1479,432 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>54</v>
-      </c>
-      <c r="B34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>64</v>
-      </c>
-      <c r="B40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>68</v>
-      </c>
-      <c r="B42" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>70</v>
-      </c>
-      <c r="B44" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>72</v>
-      </c>
-      <c r="B45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>74</v>
-      </c>
-      <c r="B46" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>76</v>
-      </c>
-      <c r="B47" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B48" t="s">
-        <v>79</v>
+        <v>86</v>
+      </c>
+      <c r="C48" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
